--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308774.8305155635</v>
+        <v>-311556.6759071577</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13228319.96176844</v>
+        <v>13228319.96176845</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.29546233506198</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>52.00519203774782</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>11.94046868605807</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.8232201722642</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.86522488846548</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>224.6087528929945</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>192.5627265154902</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>194.2459447594962</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>216.7892442937698</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>194.0851541932612</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>207.8591199740541</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>126.4643665640119</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>185.0663491738896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>215.3025979624043</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>99.76189317294694</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.26558381699971</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>161.0175085755509</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725614</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.955922978507</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>1003.993406038096</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>645.7277074313452</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>259.9394548331009</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>259.9394548331009</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>2376.29753670594</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>2023.528881435826</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1650.063123174746</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1650.063123174746</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545818</v>
@@ -4519,19 +4519,19 @@
         <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1231.060643387869</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>845.2723907896243</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>434.2864860000167</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1465.195303554219</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.195303554219</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>104.883908862959</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>104.883908862959</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>104.883908862959</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.883908862959</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.883908862959</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.883908862959</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.841401975886</v>
+        <v>1952.668433521682</v>
       </c>
       <c r="C8" t="n">
-        <v>983.8788850354742</v>
+        <v>1583.70591658127</v>
       </c>
       <c r="D8" t="n">
-        <v>983.8788850354742</v>
+        <v>1387.497891571678</v>
       </c>
       <c r="E8" t="n">
-        <v>598.0906324372299</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
-        <v>591.1451316880265</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>2129.580574015819</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="X8" t="n">
-        <v>2129.580574015819</v>
+        <v>1952.668433521682</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.441242040008</v>
+        <v>1952.668433521682</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.753752507634</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>650.391768235891</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>650.391768235891</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="W10" t="n">
-        <v>650.391768235891</v>
+        <v>557.0202084951538</v>
       </c>
       <c r="X10" t="n">
-        <v>422.4022173378737</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="Y10" t="n">
-        <v>422.4022173378737</v>
+        <v>347.0615014506548</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>228.933143164642</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647227</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>110.9078283447581</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>110.9078283447581</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580255</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.10824923516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579358</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373471</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.93136433651</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438493</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949624</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.575996120531</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926237</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>770.5231737802879</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978948</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>475.7201326999844</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>308.5240334148644</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>166.8122022570625</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.0170400943</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.22446095077</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>256.4606111040839</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6789,7 +6789,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6917,34 +6917,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7552,16 +7552,16 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>216.3441640494767</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.352869836820412e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-2.784609049966082e-13</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-8.013003602730812e-14</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.4383793284186</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7789779830472</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>356.46639722434</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.05977172825693</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>67.07129414993838</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022935</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>70.88187642683985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.48492792568089</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>64.34558267474716</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.000252501565811</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.506629716717924</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.4693302300321</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-2.009503802257291e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1077034.980022582</v>
+        <v>1077034.980022581</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1134884.791286107</v>
+        <v>1134884.791286108</v>
       </c>
     </row>
     <row r="7">
@@ -26314,16 +26314,16 @@
         <v>251542.9259350418</v>
       </c>
       <c r="C2" t="n">
+        <v>287364.6194524994</v>
+      </c>
+      <c r="D2" t="n">
         <v>287364.6194524993</v>
-      </c>
-      <c r="D2" t="n">
-        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
@@ -26332,28 +26332,28 @@
         <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="L2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151505.7204605793</v>
+        <v>151505.7204605791</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682667</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682684</v>
+        <v>5677.536566682775</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682695</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682767</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26457,7 +26457,7 @@
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-572789.7518034914</v>
+        <v>-573045.6210429017</v>
       </c>
       <c r="C6" t="n">
-        <v>-5416.874073943443</v>
+        <v>-5416.874073943385</v>
       </c>
       <c r="D6" t="n">
-        <v>-161220.6801677386</v>
+        <v>-161220.6801677385</v>
       </c>
       <c r="E6" t="n">
-        <v>-595351.4478798942</v>
+        <v>-595386.1858053298</v>
       </c>
       <c r="F6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754769</v>
       </c>
       <c r="G6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="H6" t="n">
-        <v>175701.2435009124</v>
+        <v>175666.5055754767</v>
       </c>
       <c r="I6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754763</v>
       </c>
       <c r="J6" t="n">
-        <v>-721.9756916803599</v>
+        <v>-756.713617116155</v>
       </c>
       <c r="K6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="L6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="M6" t="n">
-        <v>51492.73279285383</v>
+        <v>51457.99486741831</v>
       </c>
       <c r="N6" t="n">
-        <v>175701.2435009123</v>
+        <v>175666.5055754766</v>
       </c>
       <c r="O6" t="n">
         <v>151104.3897751759</v>
       </c>
       <c r="P6" t="n">
-        <v>170532.1077688077</v>
+        <v>170532.1077688076</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>315.8117897840768</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13.26470345412901</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.00876000967305</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>167.3197406524577</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>312.8686167750151</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>189.1754171278005</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,19 +27667,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>105.7393710696266</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>33.14692887354693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>160.4370968611868</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>196.127659652167</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>92.17550046483578</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17.85053541498309</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.144468577784776e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138083</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>412.6413487888528</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>136.4812930471416</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998929</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36452,13 +36452,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
